--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1103.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1103.xlsx
@@ -357,7 +357,7 @@
         <v>2.053811617887061</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.883263607058825</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1103.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1103.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7399592203482536</v>
+        <v>1.17609965801239</v>
       </c>
       <c r="B1">
-        <v>1.061444165423113</v>
+        <v>2.411120653152466</v>
       </c>
       <c r="C1">
-        <v>2.053811617887061</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.341566562652588</v>
       </c>
       <c r="E1">
-        <v>1.883263607058825</v>
+        <v>1.205419898033142</v>
       </c>
     </row>
   </sheetData>
